--- a/medicine/Enfance/Éric-Emmanuel_Schmitt/Éric-Emmanuel_Schmitt.xlsx
+++ b/medicine/Enfance/Éric-Emmanuel_Schmitt/Éric-Emmanuel_Schmitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
+          <t>Éric-Emmanuel_Schmitt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric-Emmanuel Schmitt, né le 28 mars 1960 à Sainte-Foy-lès-Lyon (Rhône), est un dramaturge, nouvelliste, romancier, réalisateur et comédien franco-belge. Il vit en Belgique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
+          <t>Éric-Emmanuel_Schmitt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Les parents d'Éric-Emmanuel Schmitt étaient professeurs d’éducation physique et sportive. Champion universitaire de France en boxe, son père est ensuite devenu masseur-kinésithérapeute dans des cliniques pédiatriques. Sa mère Jeannine Schmitt-Trolliet était championne de course à pied[1].
-Formation
-Élève au lycée de Saint-Just de Lyon où il est lauréat du concours général, Éric-Emmanuel Schmitt entre en hypokhâgne et khâgne au lycée du Parc, il réussit le concours d'entrée de l'École normale supérieure. Il y étudie de 1980 à 1985 et devient agrégé de philosophie en 1983[réf. nécessaire]. Sa thèse de doctorat, soutenue en 1987, à la Sorbonne Paris IV est intitulée Diderot et la métaphysique[2]. Elle fut publiée en 1997 sous le titre Diderot ou la Philosophie de la séduction.
-Carrière
-Éric-Emmanuel Schmitt enseigne un an au lycée militaire de Saint-Cyr pendant son service militaire[3], puis deux ans à l’université de Besançon en tant qu’assistant-normalien, puis un an dans un lycée de Cherbourg. Il est ensuite élu maître de conférences à l'université de Chambéry, où il enseigne durant quatre ans[réf. nécessaire].
-Le succès français puis international de sa pièce Le Visiteur en 1994 lui fait quitter l’université pour se consacrer entièrement à l’écriture[4].
-Installé à Bruxelles depuis 2002, il a acquis la nationalité belge en 2008[5]. Le 9 juin 2012 il est élu à l’Académie royale de langue et de littérature françaises de Belgique  au fauteuil 33, celui qu’avaient occupé Colette et Cocteau[6].
-En 2016, il devient membre de l'Académie Goncourt[7] et publie un roman d’enquête sur la violence et le sacré, L'homme qui voyait à travers les visages.
-Éric-Emmanuel Schmitt a aussi entrepris un livre qui raconte l'histoire de l'humanité dans une épopée de huit tomes[8]. La série est intitulée La Traversée des Temps[9] et jusqu'à date, seulement les quatre premières parties ont été publiées, soit Paradis perdus en 2021, La porte du ciel en 2021, Le soleil sombre en 2022 et La lumière du bonheur en 2024.
-Autres activités
-Le 1er décembre 1992, Éric-Emmanuel Schmitt crée l'Association TRUC (Théâtre et Recherches à l'Université de Chambéry), alors qu'il était maître de conférence à l'université de Savoie. Cette association, toujours en activité, regroupe diverses activités théâtrales et promeut l'accès au théâtre pour tous[10].
-Depuis 2008, Éric-Emmanuel Schmitt est un des administrateurs de la Société Anonyme Antigone, dont le siège social était situé rue François Stroobant 4 à Bruxelles[11]. Cette Société gère les éditions de livres, les productions de films pour le cinéma et la télévision, des conseils pour les affaires et de gestion et des activités combinées de soutien lié aux bâtiments[12].
-En janvier 2012, Éric-Emmanuel Schmitt prend la direction du théâtre Rive gauche[13] à Paris. En juillet 2022, il prendra la direction artistique du Festival de la correspondance de Grignan[14].
-Parcours spirituel
-En 1988, Éric-Emmanuel Schmitt vit une « extase mystique », qu'il décrit comme une « rencontre avec Dieu », alors qu'il est encore un jeune agrégé de philosophie athée[15] et qu'il participe à un trek dans le désert du Hoggar, au Sahara algérien[16]. Immédiatement, « sa philosophie de l’absurde s’est métamorphosée en une confiance dans le mystère, comme promesse de sens[15] ». Il fera le récit de cette expérience mystique plusieurs décennies plus tard, en 2015, dans un récit autobiographique intitulé La Nuit de feu[16].
-Il vit une « deuxième conversion », au Saint-Sépulcre, lors d'un pèlerinage à Jérusalem[17] à la fin de l'année 2022[18]. Il fait le récit de cette seconde expérience spirituelle dans Le Défi de Jérusalem, publié le Jeudi Saint 2023[19].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parents d'Éric-Emmanuel Schmitt étaient professeurs d’éducation physique et sportive. Champion universitaire de France en boxe, son père est ensuite devenu masseur-kinésithérapeute dans des cliniques pédiatriques. Sa mère Jeannine Schmitt-Trolliet était championne de course à pied.
 </t>
         </is>
       </c>
@@ -540,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
+          <t>Éric-Emmanuel_Schmitt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il vit en Belgique[20].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève au lycée de Saint-Just de Lyon où il est lauréat du concours général, Éric-Emmanuel Schmitt entre en hypokhâgne et khâgne au lycée du Parc, il réussit le concours d'entrée de l'École normale supérieure. Il y étudie de 1980 à 1985 et devient agrégé de philosophie en 1983[réf. nécessaire]. Sa thèse de doctorat, soutenue en 1987, à la Sorbonne Paris IV est intitulée Diderot et la métaphysique. Elle fut publiée en 1997 sous le titre Diderot ou la Philosophie de la séduction.
 </t>
         </is>
       </c>
@@ -571,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
+          <t>Éric-Emmanuel_Schmitt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,16 +594,169 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric-Emmanuel Schmitt enseigne un an au lycée militaire de Saint-Cyr pendant son service militaire, puis deux ans à l’université de Besançon en tant qu’assistant-normalien, puis un an dans un lycée de Cherbourg. Il est ensuite élu maître de conférences à l'université de Chambéry, où il enseigne durant quatre ans[réf. nécessaire].
+Le succès français puis international de sa pièce Le Visiteur en 1994 lui fait quitter l’université pour se consacrer entièrement à l’écriture.
+Installé à Bruxelles depuis 2002, il a acquis la nationalité belge en 2008. Le 9 juin 2012 il est élu à l’Académie royale de langue et de littérature françaises de Belgique  au fauteuil 33, celui qu’avaient occupé Colette et Cocteau.
+En 2016, il devient membre de l'Académie Goncourt et publie un roman d’enquête sur la violence et le sacré, L'homme qui voyait à travers les visages.
+Éric-Emmanuel Schmitt a aussi entrepris un livre qui raconte l'histoire de l'humanité dans une épopée de huit tomes. La série est intitulée La Traversée des Temps et jusqu'à date, seulement les quatre premières parties ont été publiées, soit Paradis perdus en 2021, La porte du ciel en 2021, Le soleil sombre en 2022 et La lumière du bonheur en 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er décembre 1992, Éric-Emmanuel Schmitt crée l'Association TRUC (Théâtre et Recherches à l'Université de Chambéry), alors qu'il était maître de conférence à l'université de Savoie. Cette association, toujours en activité, regroupe diverses activités théâtrales et promeut l'accès au théâtre pour tous.
+Depuis 2008, Éric-Emmanuel Schmitt est un des administrateurs de la Société Anonyme Antigone, dont le siège social était situé rue François Stroobant 4 à Bruxelles. Cette Société gère les éditions de livres, les productions de films pour le cinéma et la télévision, des conseils pour les affaires et de gestion et des activités combinées de soutien lié aux bâtiments.
+En janvier 2012, Éric-Emmanuel Schmitt prend la direction du théâtre Rive gauche à Paris. En juillet 2022, il prendra la direction artistique du Festival de la correspondance de Grignan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Parcours spirituel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, Éric-Emmanuel Schmitt vit une « extase mystique », qu'il décrit comme une « rencontre avec Dieu », alors qu'il est encore un jeune agrégé de philosophie athée et qu'il participe à un trek dans le désert du Hoggar, au Sahara algérien. Immédiatement, « sa philosophie de l’absurde s’est métamorphosée en une confiance dans le mystère, comme promesse de sens ». Il fera le récit de cette expérience mystique plusieurs décennies plus tard, en 2015, dans un récit autobiographique intitulé La Nuit de feu.
+Il vit une « deuxième conversion », au Saint-Sépulcre, lors d'un pèlerinage à Jérusalem à la fin de l'année 2022. Il fait le récit de cette seconde expérience spirituelle dans Le Défi de Jérusalem, publié le Jeudi Saint 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit en Belgique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1994 :
-France, Paris, Molière du meilleur spectacle du théâtre privé, Molière de l'auteur et Molière de la révélation théâtrale pour Le Visiteur[21].
+France, Paris, Molière du meilleur spectacle du théâtre privé, Molière de l'auteur et Molière de la révélation théâtrale pour Le Visiteur.
 1995 :
-France, prix du premier roman de l'université d'Artois pour La Secte des égoïstes[22]
+France, prix du premier roman de l'université d'Artois pour La Secte des égoïstes
 1996 :
 France, Paris, deux nominations aux Molières pour Variations énigmatiques.
 1997 :
@@ -631,58 +792,64 @@
 France, Concerto à la mémoire d'un ange, prix Goncourt de la nouvelle.
 Russie, The Reading Petersburg Price pour l’ensemble de son œuvre.
 2012 :
-Espagne, prix Ola de Oro pour le long métrage Oscar et la Dame rose[23].
-France, prix Agrippa-d’Aubigné, décerné par le Lions Club, pour son livre La Femme au miroir[24].
+Espagne, prix Ola de Oro pour le long métrage Oscar et la Dame rose.
+France, prix Agrippa-d’Aubigné, décerné par le Lions Club, pour son livre La Femme au miroir.
 France, grand prix Ardua 2012, décerné par l'Association régionale des diplômés des universités d'Aquitaine.
 2013 :
 Ukraine, a reçu la médaille pour le développement des arts et de la culture (plus haute distinction culturelle ukrainienne)
 2014 :
 Pologne, prix de l'ambassadeur de la Lecture, décerné par l’Institut du Livre polonais.
 2016 :
-Belgique, le 21 juillet 2016, il a été élevé par le roi Philippe au rang de Commandeur de l’ordre de la Couronne[25].
-Canada, le 22 novembre 2016, il a reçu le titre de docteur honoris causa de l'Université de Sherbrooke[26].
+Belgique, le 21 juillet 2016, il a été élevé par le roi Philippe au rang de Commandeur de l’ordre de la Couronne.
+Canada, le 22 novembre 2016, il a reçu le titre de docteur honoris causa de l'Université de Sherbrooke.
 2017 :
-France, Prix littéraire Groupe Paris-Lyon[27].
+France, Prix littéraire Groupe Paris-Lyon.
 2018 :
 Turquie, Prix littéraire Notre Dame de Sion pour Les Dix Enfants que madame Ming n'a jamais eus
 2019 :
-Québec, Insigne de Chevalier de l'Ordre national du Québec[28].
+Québec, Insigne de Chevalier de l'Ordre national du Québec.
 2020 :
-France, Prix Jules Renard décerné par l'Académie Alphonse Allais pour Journal d'un amour perdu[29].
+France, Prix Jules Renard décerné par l'Académie Alphonse Allais pour Journal d'un amour perdu.
 2021 :
-France, Prix de l'auteur décerné par l'association Lire pour en Sortir pour l'ensemble de son œuvre. Lire pour en sortir est une association qui met la lecture et l’écriture au cœur de la réinsertion des personnes en détention[30].
+France, Prix de l'auteur décerné par l'association Lire pour en Sortir pour l'ensemble de son œuvre. Lire pour en sortir est une association qui met la lecture et l’écriture au cœur de la réinsertion des personnes en détention.
 2023 :
 France, Grande Médaille d’or avec Plaquette d’Honneur décernée par la société académique Arts-Sciences-Lettres</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Secte des égoïstes (1994), prix du premier roman de l'université d'Artois
 L'Évangile selon Pilate (2000)
 La Part de l'autre (2001), Albin Michel - Le Livre de poche,  (ISBN 978-2-2531-5537-9)
@@ -693,49 +860,331 @@
 L'Élixir d'amour (2014), roman court
 Le Poison d'amour (2014), roman court
 L'Homme qui voyait à travers les visages (2016)
-La Traversée des temps, t. 1 : Paradis perdus (2021)[31]
+La Traversée des temps, t. 1 : Paradis perdus (2021)
 La Traversée des temps, t. 2 : La Porte du ciel (2021)
 La Traversée des temps, t. 3 : Soleil sombre (2022)
 La Traversée des temps, t. 4 : La Lumière du bonheur (2024)
-Recueils de nouvelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Odette Toulemonde et autres histoires (2006)
 La Rêveuse d'Ostende (2007)
 Concerto à la mémoire d'un ange (mars 2010), Prix Goncourt de la nouvelle
 Les Deux Messieurs de Bruxelles (novembre 2012)
 La Part de Reine, dans 13 à table ! 2015, Paris : Pocket n° 16073, novembre 2014.  (ISBN 978-2-266-25405-2)
 La Vengeance du pardon (2017)
-Cycle de l'invisible
-Le Cycle de l'invisible regroupe plusieurs romans et récits :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cycle de l'invisible</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cycle de l'invisible regroupe plusieurs romans et récits :
 Milarepa (1997)
-Monsieur Ibrahim et les Fleurs du Coran (2001)[32]
+Monsieur Ibrahim et les Fleurs du Coran (2001)
 Oscar et la Dame rose (2002)
 L'Enfant de Noé (2004)
 Le Sumo qui ne pouvait pas grossir (2009)
 Les Dix Enfants que madame Ming n'a jamais eus (2012)
 Madame Pylinska et le Secret de Chopin (2018)
 Félix et la Source invisible (2019)
-Récits autobiographiques
-La Nuit de feu (2015), récit autobiographique[33],[34]
-Journal d'un amour perdu (2019), récit autobiographique, Éditions Albin Michel[35],[36]
-Le Défi de Jérusalem (2023), récit autobiographique, avec une postface du Pape François, Albin Michel[37]
-« Le Bruit qui pense »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Récits autobiographiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Nuit de feu (2015), récit autobiographique,
+Journal d'un amour perdu (2019), récit autobiographique, Éditions Albin Michel,
+Le Défi de Jérusalem (2023), récit autobiographique, avec une postface du Pape François, Albin Michel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>« Le Bruit qui pense »</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ma vie avec Mozart (2005)  — accompagné d'un disque d'extraits musicaux de Wolfgang Amadeus Mozart
 Quand je pense que Beethoven est mort alors que tant de crétins vivent (2010)  — accompagné d'un disque d'extraits musicaux de Ludwig van Beethoven
 Le Carnaval des animaux (2014)  — accompagné d'un disque d'extraits musicaux de Camille Saint-Saëns
 Le Mystère Bizet (2017)
-Essais
-Diderot ou la Philosophie de la séduction (1997)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Diderot ou la Philosophie de la séduction (1997)
 Guignol aux pieds des Alpes (2002)
-Plus tard, je serai un enfant (2017), Éditions Bayard.
-Littérature d'enfance et de jeunesse
-Le Chaton qui avait peur de tout[38], illustré par Barbara Brun, Hachette Jeunesse, coll. « Les contes de la chouette », 2021  (ISBN 9782017135296).
-L'Ours qui voulait être heureux[38], illustré par Barbara Brun, Hachette Jeunesse, coll. « Les contes de la chouette », 2022  (ISBN 9782017171171).
-Bande dessinée
-Scénariste des Aventures de Poussin 1er, dessinateur Janry, 2 tomes (2013, 2015).
+Plus tard, je serai un enfant (2017), Éditions Bayard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Chaton qui avait peur de tout, illustré par Barbara Brun, Hachette Jeunesse, coll. « Les contes de la chouette », 2021  (ISBN 9782017135296).
+L'Ours qui voulait être heureux, illustré par Barbara Brun, Hachette Jeunesse, coll. « Les contes de la chouette », 2022  (ISBN 9782017171171).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Scénariste des Aventures de Poussin 1er, dessinateur Janry, 2 tomes (2013, 2015).
 1 Cui suis-je ?, Dupuis, 2013Scénario : Éric-Emmanuel Schmitt - Dessin et couleurs : Janry
-2 Les Apparences sont trompeuses, Dupuis, 2015Scénario : Éric-Emmanuel Schmitt - Dessin et couleurs : Janry
-Livres audio
-Livres lus et interprétés par l'auteur
+2 Les Apparences sont trompeuses, Dupuis, 2015Scénario : Éric-Emmanuel Schmitt - Dessin et couleurs : Janry</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Livres audio</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Livres lus et interprétés par l'auteur</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Monsieur Ibrahim et les Fleurs du Coran
 Oscar et la Dame rose
 L'Enfant de Noé
@@ -748,7 +1197,47 @@
 Félix et la Source invisible
 Journal d'un amour perdu
 La Traversée des temps, t. 1: Paradis perdus
-Livres lus et interprétés par des comédiens divers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Livres audio</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Livres lus et interprétés par des comédiens divers</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Rêveuse d'Ostende par Pierre Arditi
 Ulysse from Bagdad par Bernard Malaka
 Concerto à la mémoire d'un ange par Daniel Nicodème
@@ -760,39 +1249,118 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Les Archives du spectacle.
-Auteur
-Courtes pièces en un acte
-L'École du diable (1996)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Courtes pièces en un acte</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L'École du diable (1996)
 Le Bâillon (1999)
-Mille et un jours (2000)
-Pièces en plusieurs actes
+Mille et un jours (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pièces en plusieurs actes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Nuit de Valognes (1991)
 avec Micheline Presle, Mathieu Carrière, Danièle Lebrun, Florence Darel, Dominique Guillo.
 Le Visiteur (1993)
@@ -813,7 +1381,7 @@
 Hôtel des deux mondes (1999)
 avec Jean-Yves Berteloot, Rufus, Bernard Dhéran, Catherine Arditi, Viktor Lazlo, Laurence Côte (1999)
 avec Davy Sardou, Jean-Paul Farré, Jean-Jacques Moreau, Michèle Garcia, Odile Cohen, Noémie Elbaz (2017)
-Monsieur Ibrahim et les Fleurs du Coran (2001)[39],[40]
+Monsieur Ibrahim et les Fleurs du Coran (2001),
 Oscar et la Dame rose
 avec Danielle Darrieux (2002)
 avec Jacqueline Bir (2003)
@@ -843,7 +1411,47 @@
 avec Davy Sardou et Alexandre Brasseur
 Si on recommençait (2014)
 avec Michel Sardou
-Adaptations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Bossu (2008)
 (adaptation au théâtre du roman de Paul Féval)
 Milady (2010)
@@ -867,26 +1475,172 @@
 Confidences (2017)
 (adaptation de la pièce de Joe DiPietro (en))
 avec Marie-Christine Barrault, Alain Doutey, Arthur Fenwick et Claudia Dimier.
-Spectacles musicaux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Spectacles musicaux</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ma vie avec Mozart
 Le Mystère Bizet
 Le Mystère Carmen
 Le Carnaval des animaux
 Egmont
-Opéras
-Traductions de deux opéras de Mozart :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Opéras</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Traductions de deux opéras de Mozart :
 Les Noces de Figaro
-Don Giovanni
-Metteur en scène
-Comédien
-2011 : Ma vie avec Mozart, récitant, avec l’Orchestre Symphonique Confluences, direction musicale Philippe Fournier.
+Don Giovanni</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Comédien</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2011 : Ma vie avec Mozart, récitant, avec l’Orchestre Symphonique Confluences, direction musicale Philippe Fournier.
 2012-2019 : Monsieur Ibrahim et les Fleurs du Coran, seul en scène, à Paris, en tournée en France, Suisse, Belgique, Luxembourg, Canada, Italie, États-Unis, Liban.
 2014 : Le Mystère Bizet, récitant, avec la mezzo-soprano Karine Deshayes, le ténor Philippe Do et le pianiste Nicolas Stavy à l'Opéra de Paris.
 2015 : L'Élixir d'amour, Adam. Mise en scène de Steve Suissa, avec Marie-Claude Pietragalla.
 2018 : Madame Pylinska et le Secret de Chopin, création au Théâtre National de Nice, avec Nicolas Stavy (pianiste), mise en scène Pascal Faber.
-2019 : Le Mystère Carmen (nouvelle version du Le Mystère Bizet), Théâtre du Nouveau Monde, Montréal, mise en scène Lorraine Pintal, avec Marie-Josée Lord (soprano), Jean-Michel Richer (ténor), Dominic Bouliane (pianiste).
-Captations de ses pièces
-Hôtel des deux mondes
+2019 : Le Mystère Carmen (nouvelle version du Le Mystère Bizet), Théâtre du Nouveau Monde, Montréal, mise en scène Lorraine Pintal, avec Marie-Josée Lord (soprano), Jean-Michel Richer (ténor), Dominic Bouliane (pianiste).</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Captations de ses pièces</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Hôtel des deux mondes
 Le Libertin
 Petits Crimes conjugaux
 Mes évangiles
@@ -895,54 +1649,234 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
-Réalisateur
-1996 : Variations énigmatiques (téléfilm)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Réalisateur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1996 : Variations énigmatiques (téléfilm)
 2006 : Odette Toulemonde
-2009 : Oscar et la Dame rose
-Scénariste
-Cinéma
-2000 : Le Libertin de Gabriel Aghion - adaptation et dialogues
-2003 : Monsieur Ibrahim et les Fleurs du Coran de François Dupeyron[41]
+2009 : Oscar et la Dame rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2000 : Le Libertin de Gabriel Aghion - adaptation et dialogues
+2003 : Monsieur Ibrahim et les Fleurs du Coran de François Dupeyron
 2006 : Odette Toulemonde de lui-même
-2009 : Oscar et la Dame rose de lui-même
-Télévision
-1996 : Variations énigmatiques (téléfilm) de lui-même
+2009 : Oscar et la Dame rose de lui-même</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1996 : Variations énigmatiques (téléfilm) de lui-même
 2001 : L'Étrange Monsieur Joseph (téléfilm) de Josée Dayan - adaptation du livre homonyme d'Alphonse Boudard
 2003 : Les Liaisons dangereuses (mini-série) de Josée Dayan - adaptation du roman homonyme de Pierre Choderlos de Laclos
 2003 : Aurélien (téléfilm) d'Arnaud Sélignac - adaptation du roman homonyme de Louis Aragon
 2004 : Volpone (téléfilm) de Frédéric Auburtin (TF1) - d'après la pièce homonyme de Ben Jonson
-2005 : Enigma - Eine uneingestandene Liebe (téléfilm) de Volker Schlöndorff
-Acteur
-2013 : La Dernière Campagne (téléfilm) de Bernard Stora : Patrick Buisson
-Adaptations de son œuvre par d'autres
-2017 : Piccoli crimini coniugali d'Alex Infascelli - scénario d'Alex Infascelli et Francesca Manieri (it) d'après la pièce de théâtre Petits Crimes conjugaux
+2005 : Enigma - Eine uneingestandene Liebe (téléfilm) de Volker Schlöndorff</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2013 : La Dernière Campagne (téléfilm) de Bernard Stora : Patrick Buisson</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Éric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric-Emmanuel_Schmitt</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre par d'autres</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2017 : Piccoli crimini coniugali d'Alex Infascelli - scénario d'Alex Infascelli et Francesca Manieri (it) d'après la pièce de théâtre Petits Crimes conjugaux
 2023 : Kleine Eheverbrechen de Christian Werner - scénario de Klaus Pieber d'après la pièce de théâtre Petits Crimes conjugaux
 2023 : Moghimane Nakoja de Shahab Hosseini - scénario de Shahab Hosseini d'après la pièce de théâtre Hôtel des deux mondes</t>
         </is>
